--- a/src/excel/sheets/OR-items.xlsx
+++ b/src/excel/sheets/OR-items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\estimate\src\excel\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\medical\src\excel\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F37172E-D43D-4985-912C-D71E243FD903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F54FC40-3D76-4CCF-A3B9-0CF0652327EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60EF50EE-A8BA-4A9A-8788-F2A7F89E3529}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>item_code</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>หมวดที่ 17 ค่าธรรมเนียมแพทย์และบุคลากรวิชาชีพ</t>
+  </si>
+  <si>
+    <t>SS_เบิกได้</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
     <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
@@ -195,7 +206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,14 +287,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="187" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="187" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -300,15 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,6 +317,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B9C195-2136-4E73-B2E1-4BE34B795C03}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,160 +652,152 @@
     <col min="1" max="1" width="21.59765625" customWidth="1"/>
     <col min="2" max="2" width="41.296875" customWidth="1"/>
     <col min="3" max="3" width="33.3984375" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="10" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="str">
+    <row r="1" spans="1:7" ht="31.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="str">
         <f ca="1">"EXCEL"&amp;RANDBETWEEN(1000,9999)</f>
-        <v>EXCEL8347</v>
-      </c>
-      <c r="B1" s="14" t="s">
+        <v>EXCEL8890</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -821,208 +823,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="54.296875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="16"/>
+    <col min="1" max="1" width="16.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="54.296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>16</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>17</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/excel/sheets/OR-items.xlsx
+++ b/src/excel/sheets/OR-items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\medical\src\excel\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F54FC40-3D76-4CCF-A3B9-0CF0652327EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E46757-4C81-47A0-9FDF-2C6C5957E53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60EF50EE-A8BA-4A9A-8788-F2A7F89E3529}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>item_code</t>
   </si>
@@ -119,6 +119,120 @@
   </si>
   <si>
     <t>SS_เบิกได้</t>
+  </si>
+  <si>
+    <t>400003038</t>
+  </si>
+  <si>
+    <t>400003039</t>
+  </si>
+  <si>
+    <t>OR0178</t>
+  </si>
+  <si>
+    <t>OR0182</t>
+  </si>
+  <si>
+    <t>OR0194</t>
+  </si>
+  <si>
+    <t>SATIN SLIT ANGLED 3.0 MM.</t>
+  </si>
+  <si>
+    <t>HANDLE KNIFE 15</t>
+  </si>
+  <si>
+    <t>Phacoemulsification and aspiration of cataract</t>
+  </si>
+  <si>
+    <t>Insertion of intraocular lens prosthesis at time of cataract extraction, one-stage</t>
+  </si>
+  <si>
+    <t>Injection of vitreous substitute</t>
+  </si>
+  <si>
+    <t>200000012</t>
+  </si>
+  <si>
+    <t>200003526</t>
+  </si>
+  <si>
+    <t>400000316</t>
+  </si>
+  <si>
+    <t>400001130</t>
+  </si>
+  <si>
+    <t>400002975</t>
+  </si>
+  <si>
+    <t>400003070</t>
+  </si>
+  <si>
+    <t>400004109</t>
+  </si>
+  <si>
+    <t>400004324</t>
+  </si>
+  <si>
+    <t>400005109</t>
+  </si>
+  <si>
+    <t>400005110</t>
+  </si>
+  <si>
+    <t>400005115</t>
+  </si>
+  <si>
+    <t>400005214</t>
+  </si>
+  <si>
+    <t>400005274</t>
+  </si>
+  <si>
+    <t>400006273</t>
+  </si>
+  <si>
+    <t>ADRENALINE (EPINEPHRine) INJ 1 MG/ML (1 ML) [HAD]</t>
+  </si>
+  <si>
+    <t>TRYPAN BLUE SOL 0.06% W/V (1 ML)</t>
+  </si>
+  <si>
+    <t>Oxygen Cannula (Adult)</t>
+  </si>
+  <si>
+    <t>Syring 1 ml.</t>
+  </si>
+  <si>
+    <t>nylon 10/0 black 38 cm. (A023PA)</t>
+  </si>
+  <si>
+    <t>Gauze Sterile 4"X4" 12 Ply (PAC10)</t>
+  </si>
+  <si>
+    <t>สารหนืด (VISCOAT 0.75 ML)</t>
+  </si>
+  <si>
+    <t>Syringe 3 cc.</t>
+  </si>
+  <si>
+    <t>เข็ม(Needle)#20x1"</t>
+  </si>
+  <si>
+    <t>เข็ม(Needle)#21x1"</t>
+  </si>
+  <si>
+    <t>เข็ม(Needle)#27x1/2"</t>
+  </si>
+  <si>
+    <t>Ophthalmic Drape 160x250 Cm</t>
+  </si>
+  <si>
+    <t>สารหนืด (AMVISC PLUS 0.8 ML)</t>
+  </si>
+  <si>
+    <t>เลนส์แก้วตาเทียมพับได้AR40epower+21.0</t>
   </si>
 </sst>
 </file>
@@ -129,7 +243,7 @@
     <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +260,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -211,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -282,18 +390,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -316,16 +434,19 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,156 +762,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B9C195-2136-4E73-B2E1-4BE34B795C03}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.59765625" customWidth="1"/>
     <col min="2" max="2" width="41.296875" customWidth="1"/>
-    <col min="3" max="3" width="33.3984375" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="62.09765625" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="5" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="str">
+      <c r="A1" s="10" t="str">
         <f ca="1">"EXCEL"&amp;RANDBETWEEN(1000,9999)</f>
-        <v>EXCEL8890</v>
-      </c>
-      <c r="B1" s="15" t="s">
+        <v>EXCEL3156</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="31.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14">
+        <v>7.75</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14">
+        <v>218</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15">
+        <v>16</v>
+      </c>
+      <c r="G5" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14">
+        <v>620</v>
+      </c>
+      <c r="E7" s="15">
+        <v>620</v>
+      </c>
+      <c r="F7" s="15">
+        <v>620</v>
+      </c>
+      <c r="G7" s="15">
+        <v>620</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14">
+        <v>325</v>
+      </c>
+      <c r="E8" s="15">
+        <v>325</v>
+      </c>
+      <c r="F8" s="15">
+        <v>325</v>
+      </c>
+      <c r="G8" s="15">
+        <v>325</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14">
+        <v>279</v>
+      </c>
+      <c r="E9" s="15">
+        <v>279</v>
+      </c>
+      <c r="F9" s="15">
+        <v>279</v>
+      </c>
+      <c r="G9" s="15">
+        <v>279</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15">
+        <v>33</v>
+      </c>
+      <c r="F10" s="15">
+        <v>33</v>
+      </c>
+      <c r="G10" s="15">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2708</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2708</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2708</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2708</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="14">
+        <v>501</v>
+      </c>
+      <c r="E16" s="15">
+        <v>501</v>
+      </c>
+      <c r="F16" s="15">
+        <v>501</v>
+      </c>
+      <c r="G16" s="15">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1950</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1950</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1950</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3250</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2800</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14">
+        <v>8500</v>
+      </c>
+      <c r="E19" s="15">
+        <v>8500</v>
+      </c>
+      <c r="F19" s="15">
+        <v>8500</v>
+      </c>
+      <c r="G19" s="15">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="14">
+        <v>7500</v>
+      </c>
+      <c r="E20" s="15">
+        <v>7500</v>
+      </c>
+      <c r="F20" s="15">
+        <v>7500</v>
+      </c>
+      <c r="G20" s="15">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="14">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="15">
+        <v>6000</v>
+      </c>
+      <c r="F21" s="15">
+        <v>6000</v>
+      </c>
+      <c r="G21" s="15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -823,208 +1307,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="54.296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="12"/>
+    <col min="1" max="1" width="16.8984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="54.296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
